--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1178"/>
+  <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43174,6 +43174,43 @@
         </is>
       </c>
     </row>
+    <row r="1179">
+      <c r="A1179" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1179" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1179" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1179" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1179" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1179"/>
+  <dimension ref="A1:I1180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43211,6 +43211,43 @@
         </is>
       </c>
     </row>
+    <row r="1180">
+      <c r="A1180" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1180" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1180" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1180" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1180"/>
+  <dimension ref="A1:I1181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43248,6 +43248,43 @@
         </is>
       </c>
     </row>
+    <row r="1181">
+      <c r="A1181" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1181" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1181" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1181" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="I1181" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1181"/>
+  <dimension ref="A1:I1182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43285,6 +43285,41 @@
         </is>
       </c>
     </row>
+    <row r="1182">
+      <c r="A1182" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1182" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1182" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1182" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1182"/>
+  <dimension ref="A1:I1183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43320,6 +43320,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1183">
+      <c r="A1183" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1183" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1183" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1183" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>739100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1183"/>
+  <dimension ref="A1:I1184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43355,6 +43355,41 @@
         <v>739100</v>
       </c>
     </row>
+    <row r="1184">
+      <c r="A1184" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1184" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1184" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1184" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>51300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1184"/>
+  <dimension ref="A1:I1185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43390,6 +43390,41 @@
         <v>51300</v>
       </c>
     </row>
+    <row r="1185">
+      <c r="A1185" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1185" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1185" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1185" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>10100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1185"/>
+  <dimension ref="A1:I1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43425,6 +43425,41 @@
         <v>10100</v>
       </c>
     </row>
+    <row r="1186">
+      <c r="A1186" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1186" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1186" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1186" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1186"/>
+  <dimension ref="A1:I1187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43460,6 +43460,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1187">
+      <c r="A1187" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1187" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1187" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1187" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>794100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1187"/>
+  <dimension ref="A1:I1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43495,6 +43495,41 @@
         <v>794100</v>
       </c>
     </row>
+    <row r="1188">
+      <c r="A1188" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1188" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1188" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1188" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>202500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43530,6 +43530,41 @@
         <v>202500</v>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>22000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43565,6 +43565,41 @@
         <v>22000</v>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>81000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43600,6 +43600,76 @@
         <v>81000</v>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>390000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43670,6 +43670,76 @@
         <v>390000</v>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43740,6 +43740,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>11000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43775,6 +43775,41 @@
         <v>11000</v>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>282500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43810,6 +43810,43 @@
         <v>282500</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43847,6 +43847,41 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>40000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43882,6 +43882,76 @@
         <v>40000</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43952,6 +43952,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>4700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1201"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43987,6 +43987,41 @@
         <v>4700</v>
       </c>
     </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>44800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76257,6 +76257,41 @@
         <v>44800</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>152800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2124"/>
+  <dimension ref="A1:I2125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76292,6 +76292,41 @@
         <v>152800</v>
       </c>
     </row>
+    <row r="2125">
+      <c r="A2125" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2125" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2125" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2125" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="F2125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G2125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="H2125" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="I2125" t="n">
+        <v>7000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2125"/>
+  <dimension ref="A1:I2126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76327,6 +76327,41 @@
         <v>7000</v>
       </c>
     </row>
+    <row r="2126">
+      <c r="A2126" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2126" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2126" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2126" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2126" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2126" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G2126" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2126" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2126" t="n">
+        <v>36400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2126"/>
+  <dimension ref="A1:I2127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76362,6 +76362,41 @@
         <v>36400</v>
       </c>
     </row>
+    <row r="2127">
+      <c r="A2127" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2127" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2127" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2127" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2127" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2127" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G2127" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2127" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I2127" t="n">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2127"/>
+  <dimension ref="A1:I2128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76397,6 +76397,41 @@
         <v>18000</v>
       </c>
     </row>
+    <row r="2128">
+      <c r="A2128" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2128" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2128" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2128" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2128" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F2128" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2128" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2128" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I2128" t="n">
+        <v>68000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2128"/>
+  <dimension ref="A1:I2129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76432,6 +76432,41 @@
         <v>68000</v>
       </c>
     </row>
+    <row r="2129">
+      <c r="A2129" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2129" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2129" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2129" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2129" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2129" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2129"/>
+  <dimension ref="A1:I2130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76467,6 +76467,41 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2130">
+      <c r="A2130" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2130" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2130" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2130" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2130" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2130" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G2130" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2130" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2130" t="n">
+        <v>917800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2130"/>
+  <dimension ref="A1:I2131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76502,6 +76502,41 @@
         <v>917800</v>
       </c>
     </row>
+    <row r="2131">
+      <c r="A2131" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2131" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2131" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2131" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2131" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2131" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2131" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2131" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2131" t="n">
+        <v>421300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2131"/>
+  <dimension ref="A1:I2132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76537,6 +76537,41 @@
         <v>421300</v>
       </c>
     </row>
+    <row r="2132">
+      <c r="A2132" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2132" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2132" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2132" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2132" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2132" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G2132" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2132" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2132" t="n">
+        <v>305000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2132"/>
+  <dimension ref="A1:I2133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76572,6 +76572,41 @@
         <v>305000</v>
       </c>
     </row>
+    <row r="2133">
+      <c r="A2133" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2133" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2133" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2133" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2133" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2133" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G2133" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="H2133" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I2133" t="n">
+        <v>375000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2133"/>
+  <dimension ref="A1:I2134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76607,6 +76607,41 @@
         <v>375000</v>
       </c>
     </row>
+    <row r="2134">
+      <c r="A2134" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2134" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2134" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2134" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2134" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="F2134" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G2134" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2134" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2134" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2134"/>
+  <dimension ref="A1:I2135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76642,6 +76642,43 @@
         <v>17000</v>
       </c>
     </row>
+    <row r="2135">
+      <c r="A2135" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2135" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2135" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2135" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2135" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2135" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2135" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2135" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2135" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2135"/>
+  <dimension ref="A1:I2136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76679,6 +76679,43 @@
         </is>
       </c>
     </row>
+    <row r="2136">
+      <c r="A2136" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2136" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2136" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2136" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2136" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2136" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G2136" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H2136" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I2136" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2136"/>
+  <dimension ref="A1:I2137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76716,6 +76716,41 @@
         </is>
       </c>
     </row>
+    <row r="2137">
+      <c r="A2137" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2137" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2137" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2137" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2137" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2137" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7031.xlsx
+++ b/data/7031.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2137"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76751,6 +76751,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="2138">
+      <c r="A2138" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2138" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2138" t="inlineStr">
+        <is>
+          <t>7031</t>
+        </is>
+      </c>
+      <c r="D2138" t="inlineStr">
+        <is>
+          <t>AMTEL</t>
+        </is>
+      </c>
+      <c r="E2138" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F2138" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G2138" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H2138" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I2138" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
